--- a/xlsx/圣莫尼卡_intext.xlsx
+++ b/xlsx/圣莫尼卡_intext.xlsx
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>美利堅合眾國</t>
+    <t>美利坚合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E5%90%84%E7%B8%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>加利福尼亞州各縣列表</t>
+    <t>加利福尼亚州各县列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A8%99%E6%BA%96%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>太平洋標準時間</t>
+    <t>太平洋标准时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC-8</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%BC%E9%A0%AD</t>
   </si>
   <si>
-    <t>碼頭</t>
+    <t>码头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
-    <t>遊樂園</t>
+    <t>游乐园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E8%BC%AA</t>
   </si>
   <si>
-    <t>摩天輪</t>
+    <t>摩天轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B2%E9%9C%84%E9%A3%9B%E8%BB%8A</t>
   </si>
   <si>
-    <t>雲霄飛車</t>
+    <t>云霄飞车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E6%B0%B4</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%87%AA%E8%A1%8C%E8%BB%8A</t>
   </si>
   <si>
-    <t>公共自行車</t>
+    <t>公共自行车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E7%89%B9%E8%98%AD</t>
   </si>
   <si>
-    <t>馬薩特蘭</t>
+    <t>马萨特兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%A3%AB%E5%AE%AE%E5%B8%82</t>
   </si>
   <si>
-    <t>富士宮市</t>
+    <t>富士宫市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E7%90%83%E5%94%B1%E7%89%87</t>
   </si>
   <si>
-    <t>環球唱片</t>
+    <t>环球唱片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%A7%86%E6%9A%B4%E9%9B%AA</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
